--- a/IDSL.CSA/inst/extdata/CSA_parameters.xlsx
+++ b/IDSL.CSA/inst/extdata/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="430">
   <si>
     <t>Analysis step</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Index number(s) of selected IDSL.IPA peaks</t>
-  </si>
-  <si>
-    <t>Intensity height threshold for chromatographic peaks</t>
   </si>
   <si>
     <t>Pearson’s correlation coefficient threshold</t>
@@ -781,8 +778,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>"YES" OR "NO", When "YES", fill out the `</t>
+    <t>Number of points to smooth individual chromatographic peaks using cubic spline method to increase number of data points for the Pearson's correlation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annotate </t>
     </r>
     <r>
       <rPr>
@@ -792,24 +792,101 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>DIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>` tab</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of points to smooth individual chromatographic peaks using cubic spline method to increase number of data points for the Pearson's correlation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Annotate </t>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files using a reference library (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>HRMS data location</t>
+  </si>
+  <si>
+    <t>Minimum cutoff (%) for relative intensity ( = peak intensity/basepeak intensity) to select spectra marker peaks above this cutoff</t>
+  </si>
+  <si>
+    <t>FSDB_name</t>
+  </si>
+  <si>
+    <t>≥ 2</t>
+  </si>
+  <si>
+    <t>≥ 0.001</t>
+  </si>
+  <si>
+    <t>DDA0016</t>
+  </si>
+  <si>
+    <t>DDA0017</t>
+  </si>
+  <si>
+    <t>DDA0018</t>
+  </si>
+  <si>
+    <t>DDA0019</t>
+  </si>
+  <si>
+    <t>0.5-1 (Default = 0.85)</t>
+  </si>
+  <si>
+    <t>0-100 (Default = 10%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -819,6 +896,84 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Nature Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from reference library files (only </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>.msp</t>
     </r>
     <r>
@@ -828,88 +983,138 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files using a reference library (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>HRMS data location</t>
-  </si>
-  <si>
-    <t>Minimum cutoff (%) for relative intensity ( = peak intensity/basepeak intensity) to select spectra marker peaks above this cutoff</t>
-  </si>
-  <si>
-    <t>FSDB_name</t>
-  </si>
-  <si>
-    <t>≥ 2</t>
-  </si>
-  <si>
-    <t>≥ 0.001</t>
-  </si>
-  <si>
-    <t>DDA0016</t>
-  </si>
-  <si>
-    <t>DDA0017</t>
-  </si>
-  <si>
-    <t>DDA0018</t>
-  </si>
-  <si>
-    <t>DDA0019</t>
-  </si>
-  <si>
-    <t>0.5-1 (Default = 0.85)</t>
-  </si>
-  <si>
-    <t>0-100 (Default = 10%)</t>
-  </si>
-  <si>
-    <r>
-      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> files) to annotate untargeted </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files</t>
+    </r>
+  </si>
+  <si>
+    <t>CSA0001</t>
+  </si>
+  <si>
+    <t>CSA0002</t>
+  </si>
+  <si>
+    <t>CSA0003</t>
+  </si>
+  <si>
+    <t>CSA0004</t>
+  </si>
+  <si>
+    <t>CSA0005</t>
+  </si>
+  <si>
+    <t>CSA0006</t>
+  </si>
+  <si>
+    <t>CSA0007</t>
+  </si>
+  <si>
+    <t>CSA0008</t>
+  </si>
+  <si>
+    <t>Address to save the IDSL.CSA results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rank spectra hits on an aligned peak table in case </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files were generated using IDSL.CSA and indexed aligned table is available from IDSL.IPA pipeline.</t>
+    </r>
+  </si>
+  <si>
+    <t>ms_level</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <r>
+      <t>Mass accuracy (Da) for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IonFiltering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" or "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DDAspectraIntegration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Integrate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -917,81 +1122,112 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, or select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from reference library files (only </t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the most abundant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of DDA spectra (MS2) of the same precursor across MS1 chromatographic peaks (mass spectra). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IonFiltering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can only be applied when DDA scan count ≥ 3; however, the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MostIntenseDDAspectra"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method is still used when DDA scan counts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+  </si>
+  <si>
+    <t>CSA0010</t>
+  </si>
+  <si>
+    <t>CSA0012</t>
+  </si>
+  <si>
+    <t>CSA0013</t>
+  </si>
+  <si>
+    <t>CSA0015</t>
+  </si>
+  <si>
+    <t>CSA0016</t>
+  </si>
+  <si>
+    <t>CSA0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of the reference </t>
     </r>
     <r>
       <rPr>
@@ -1010,351 +1246,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files) to annotate untargeted </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files</t>
-    </r>
-  </si>
-  <si>
-    <t>CSA0001</t>
-  </si>
-  <si>
-    <t>CSA0002</t>
-  </si>
-  <si>
-    <t>CSA0003</t>
-  </si>
-  <si>
-    <t>CSA0004</t>
-  </si>
-  <si>
-    <t>CSA0005</t>
-  </si>
-  <si>
-    <t>CSA0006</t>
-  </si>
-  <si>
-    <t>CSA0007</t>
-  </si>
-  <si>
-    <t>CSA0008</t>
-  </si>
-  <si>
-    <t>Address to save the IDSL.CSA results</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rank spectra hits on an aligned peak table in case </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files were generated using IDSL.CSA and indexed aligned table is available from IDSL.IPA pipeline.</t>
-    </r>
-  </si>
-  <si>
-    <t>ms_level</t>
-  </si>
-  <si>
-    <t>SMILES</t>
-  </si>
-  <si>
-    <r>
-      <t>Mass accuracy (Da) for "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IonFiltering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" or "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DDAspectraIntegration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integrate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, or select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>the most abundant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of DDA spectra (MS2) of the same precursor across MS1 chromatographic peaks (mass spectra). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IonFiltering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> can only be applied when DDA scan count ≥ 3; however, the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MostIntenseDDAspectra"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> method is still used when DDA scan counts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-  </si>
-  <si>
-    <t>CSA0010</t>
-  </si>
-  <si>
-    <t>CSA0012</t>
-  </si>
-  <si>
-    <t>CSA0013</t>
-  </si>
-  <si>
-    <t>CSA0015</t>
-  </si>
-  <si>
-    <t>CSA0016</t>
-  </si>
-  <si>
-    <t>CSA0019</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name of the reference </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> files to process</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files for Data-Independent Acquisition (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) methods such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS^E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, and All-Ion Fragmentation (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AIF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) analyses</t>
     </r>
   </si>
   <si>
@@ -1903,7 +1795,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Default </t>
+      <t>TRUE or FALSE (When TRUE, it sorts candidate molecular formulas using the `</t>
     </r>
     <r>
       <rPr>
@@ -1914,35 +1806,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> index number). </t>
+      <t>sqrt(frequency)/rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` equation, and when FALSE it sorts candidate molecular formulas relative to </t>
     </r>
     <r>
       <rPr>
@@ -1953,16 +1826,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>InChIKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or any variable from the `</t>
+      <t>frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of detections across samples)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
     </r>
     <r>
       <rPr>
@@ -1972,66 +1850,185 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MetaVariables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>` tab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TRUE or FALSE (When TRUE, it sorts candidate molecular formulas using the `</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files for Composite Spectra Analysis (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) and update IDSL.IPA peaklists with peak ID clusters and potential adducts</t>
+    </r>
+  </si>
+  <si>
+    <t>exact_mass</t>
+  </si>
+  <si>
+    <t>"exact_mass" also covers "exactmass" values</t>
+  </si>
+  <si>
+    <t>"precursor_type" also covers "precursortype" values</t>
+  </si>
+  <si>
+    <t>0.001 - 100 (Higher values include less number of spectra marker peaks but with higher intensities)</t>
+  </si>
+  <si>
+    <t>Generate aligned extracted ion chromatograms (EICs) figures for deconvoluted ions</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.CSA/wiki/DDA-analysis-by-IDSL.CSA</t>
+  </si>
+  <si>
+    <t>Github wiki link</t>
+  </si>
+  <si>
+    <t>Number of extra scans on the both sides of detected peak boundaries to produce EICs more accurately</t>
+  </si>
+  <si>
+    <t>Minimum number of matched peaks</t>
+  </si>
+  <si>
+    <t>Precursor adduct types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>sqrt(frequency)/rank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">` equation, and when FALSE it sorts candidate molecular formulas relative to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ignore precursor type match </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>frequency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of detections across samples)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 0 (select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to export all spectra figures)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPEC0009</t>
+    </r>
+  </si>
+  <si>
+    <t>Mass accuracy (Da) to integrate adjacent peaks and match fragments</t>
+  </si>
+  <si>
+    <t>Absolute spectral entropy difference (∆S) for library pre-filtering</t>
+  </si>
+  <si>
+    <t>Maximum number of top hits spectra figures for the plotting module</t>
+  </si>
+  <si>
+    <t>≥ 0 (Default = 2)</t>
+  </si>
+  <si>
+    <t>Level of pre-filtering which is a rounding digit to match rounded spectra markers for a quick pre-filter run.</t>
+  </si>
+  <si>
+    <t>0-2 (Default = 1) Higher values can speed up the annotation functions; however, a high number may increase risk of skipping the true compounds when the number of spectra markers is low.</t>
+  </si>
+  <si>
+    <t>CSA0011</t>
+  </si>
+  <si>
+    <t>DDA0009</t>
+  </si>
+  <si>
+    <t>DIA0009</t>
+  </si>
+  <si>
+    <t>DIA0016</t>
+  </si>
+  <si>
+    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
     </r>
     <r>
       <rPr>
@@ -2041,40 +2038,35 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files for Composite Spectra Analysis (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) and update IDSL.IPA peaklists with peak ID clusters and potential adducts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
+      <t>et. al.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -2084,308 +2076,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ignore precursor m/z. We suggest using a mass error for precursors in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DDA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS^E/SWATH-MS/AIF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level DIA analyses such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in-source fragmentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>exact_mass</t>
-  </si>
-  <si>
-    <t>"exact_mass" also covers "exactmass" values</t>
-  </si>
-  <si>
-    <t>"precursor_type" also covers "precursortype" values</t>
-  </si>
-  <si>
-    <t>0.001 - 100 (Higher values include less number of spectra marker peaks but with higher intensities)</t>
-  </si>
-  <si>
-    <t>Generate aligned extracted ion chromatograms (EICs) figures for deconvoluted ions</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.CSA/wiki/DDA-analysis-by-IDSL.CSA</t>
-  </si>
-  <si>
-    <t>Github wiki link</t>
-  </si>
-  <si>
-    <t>Number of extra scans on the both sides of detected peak boundaries to produce EICs more accurately</t>
-  </si>
-  <si>
-    <t>Minimum number of matched peaks</t>
-  </si>
-  <si>
-    <t>Precursor adduct types</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ignore precursor type match </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥ 0 (select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to export all spectra figures)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SPEC0009</t>
-    </r>
-  </si>
-  <si>
-    <t>Mass accuracy (Da) to integrate adjacent peaks and match fragments</t>
-  </si>
-  <si>
-    <t>Absolute spectral entropy difference (∆S) for library pre-filtering</t>
-  </si>
-  <si>
-    <t>Maximum number of top hits spectra figures for the plotting module</t>
-  </si>
-  <si>
-    <t>≥ 0 (Default = 2)</t>
-  </si>
-  <si>
-    <t>Level of pre-filtering which is a rounding digit to match rounded spectra markers for a quick pre-filter run.</t>
-  </si>
-  <si>
-    <t>0-2 (Default = 1) Higher values can speed up the annotation functions; however, a high number may increase risk of skipping the true compounds when the number of spectra markers is low.</t>
-  </si>
-  <si>
-    <t>CSA0011</t>
-  </si>
-  <si>
-    <t>DDA0009</t>
-  </si>
-  <si>
-    <t>DIA0009</t>
-  </si>
-  <si>
-    <t>DIA0016</t>
-  </si>
-  <si>
-    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et. al.,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Nature Methods</t>
     </r>
     <r>
@@ -2404,9 +2094,6 @@
   </si>
   <si>
     <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA</t>
   </si>
   <si>
     <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
@@ -2916,9 +2603,6 @@
     <t>Export aligned CSA spectra plots</t>
   </si>
   <si>
-    <t>Creat unique spectra by measuring pairwise similarity across entire samples</t>
-  </si>
-  <si>
     <t>"YES" OR "NO", When "YES", fill out CSA0023-CSA0029</t>
   </si>
   <si>
@@ -4040,9 +3724,6 @@
     </r>
   </si>
   <si>
-    <t>https://github.com/idslme/IDSL.CSA/wiki/Aligned-CSA-spectra-aggregation</t>
-  </si>
-  <si>
     <t>https://github.com/idslme/IDSL.CSA/wiki/DIA-analysis-by-IDSL.CSA</t>
   </si>
   <si>
@@ -4118,6 +3799,407 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Intensity height threshold for chromatographic peaks of MS level 2 EIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files for Data-Independent Acquisition (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) methods such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS^E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and All-Ion Fragmentation (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) analyses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO", When "YES", fill out the `</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` tab. IDSL.CSA automatically detect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ignore precursor m/z. We suggest using a mass error for precursors in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS^E/SWATH-MS/AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level analyses such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in-source fragmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA#csa-msp-generation</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA#csa-aggregation-on-the-aligned-table</t>
+  </si>
+  <si>
+    <t>Create unique spectra by measuring pairwise similarity across entire samples</t>
+  </si>
+  <si>
+    <t>InChIKey14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> index number) or any variable from the `</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MetaVariables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` tab. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InChIKey14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> performs the aggregation only based on the first 14 letters of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InChIKeys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -4125,7 +4207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4281,6 +4363,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4557,7 +4654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4612,9 +4709,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5006,27 +5100,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5035,6 +5108,27 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5056,10 +5150,10 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5102,6 +5196,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5141,6 +5241,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5435,10 +5538,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,144 +5571,144 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="164"/>
+      <c r="B3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="164"/>
+      <c r="B5" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="72" t="s">
+      <c r="C5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="164"/>
+      <c r="B6" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="72" t="s">
+      <c r="C6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="72" t="s">
+      <c r="C7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="165"/>
-      <c r="B7" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="74" t="str">
+      <c r="C8" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="73" t="str">
         <f>CONCATENATE(FSDB!D4, "/", FSDB!D5, ".Rdata")</f>
         <v>/FSDB//FSDB_name.Rdata</v>
       </c>
-      <c r="E8" s="75" t="s">
-        <v>135</v>
+      <c r="E8" s="74" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>CONCATENATE(CSA!D12, "/CSA_MSP")</f>
         <v>/path/to/folder//CSA_MSP</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>340</v>
+      <c r="E9" s="75" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="78" t="str">
+        <v>205</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="77" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E10" s="77" t="str">
+      <c r="E10" s="76" t="str">
         <f>E9</f>
         <v>Do not fill when any of PARAM0001-PARAM0003 are selected "YES"</v>
       </c>
@@ -5645,22 +5748,22 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5670,250 +5773,250 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="157"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="158"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="174"/>
+      <c r="B4" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C4" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="154"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="143" t="s">
+      <c r="E4" s="143" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="158"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="175"/>
+      <c r="B5" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="144" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="155"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
-      <c r="B4" s="143" t="s">
+      <c r="C5" s="90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="89">
+        <v>1</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="159"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="144" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="155"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
-      <c r="B5" s="90" t="s">
+      <c r="C6" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="160"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="90">
-        <v>1</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="156"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="C7" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="160"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="157"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="70" t="s">
+      <c r="C8" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="161"/>
+    </row>
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="177"/>
+      <c r="B9" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="157"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="158"/>
-    </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="158"/>
+        <v>131</v>
+      </c>
+      <c r="F9" s="161"/>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>229</v>
+      <c r="A10" s="177"/>
+      <c r="B10" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="158"/>
+        <v>367</v>
+      </c>
+      <c r="F10" s="161"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
+      <c r="A11" s="177"/>
+      <c r="B11" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="159"/>
+      <c r="F11" s="162"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="160"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
-        <v>325</v>
+      <c r="A13" s="179" t="s">
+        <v>319</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="142" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>315</v>
+        <v>277</v>
+      </c>
+      <c r="E13" s="141" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D14" s="18">
         <v>0.01</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="182"/>
+        <v>211</v>
+      </c>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="18">
         <v>5</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="182"/>
+        <v>163</v>
+      </c>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -5924,401 +6027,401 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="67" t="s">
-        <v>194</v>
+      <c r="A17" s="179"/>
+      <c r="B17" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="67" t="s">
-        <v>212</v>
+      <c r="A18" s="179"/>
+      <c r="B18" s="66" t="s">
+        <v>209</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="67">
+        <v>290</v>
+      </c>
+      <c r="D18" s="66">
         <v>250</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="39" t="s">
-        <v>213</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="39">
+        <v>158</v>
+      </c>
+      <c r="D19" s="38">
         <v>2000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="182"/>
+        <v>245</v>
+      </c>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="39" t="s">
-        <v>195</v>
+      <c r="A20" s="179"/>
+      <c r="B20" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="39">
+        <v>151</v>
+      </c>
+      <c r="D20" s="38">
         <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="182"/>
+        <v>150</v>
+      </c>
+      <c r="F20" s="181"/>
     </row>
     <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="39" t="s">
-        <v>221</v>
+      <c r="A21" s="179"/>
+      <c r="B21" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="67">
+        <v>316</v>
+      </c>
+      <c r="D21" s="66">
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="182"/>
+      <c r="F21" s="181"/>
     </row>
     <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="66">
+        <v>2</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="181"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="180"/>
+      <c r="B23" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="68">
+        <v>0.99</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="182"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="186" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D22" s="67">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="182"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
-      <c r="B23" s="69" t="s">
+      <c r="C25" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="187"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="184"/>
+      <c r="B26" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="69">
-        <v>0.99</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="183"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="188"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="C26" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="129">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="129" t="s">
-        <v>390</v>
-      </c>
-      <c r="F26" s="188"/>
+      <c r="E26" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="130" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="129">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="187"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="184"/>
+      <c r="B28" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="129" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="130">
+      <c r="C28" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="129">
+        <v>10</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>420</v>
+      </c>
+      <c r="F28" s="187"/>
+    </row>
+    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="184"/>
+      <c r="B29" s="129" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="187"/>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="185"/>
+      <c r="B30" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="124">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="188"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="80">
         <v>0.05</v>
       </c>
-      <c r="E27" s="129" t="s">
-        <v>391</v>
-      </c>
-      <c r="F27" s="188"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
-      <c r="B28" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="129" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="130">
-        <v>10</v>
-      </c>
-      <c r="E28" s="129" t="s">
-        <v>428</v>
-      </c>
-      <c r="F28" s="188"/>
-    </row>
-    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
-      <c r="B29" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D29" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="188"/>
-    </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="126" t="s">
+      <c r="E31" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="170" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="168"/>
+      <c r="B32" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="82">
+        <v>5</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="171"/>
+    </row>
+    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="168"/>
+      <c r="B33" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="84">
+        <v>3</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="171"/>
+    </row>
+    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="168"/>
+      <c r="B34" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="125">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="189"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="169" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="81">
-        <v>0.05</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="171" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="58" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
-      <c r="B32" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="83">
-        <v>5</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="172"/>
-    </row>
-    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="169"/>
-      <c r="B33" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" s="85">
-        <v>3</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="172"/>
-    </row>
-    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="85">
+      <c r="C34" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="84">
         <v>0.1</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="172"/>
+      <c r="F34" s="171"/>
     </row>
     <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
-      <c r="B35" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="D35" s="85">
+      <c r="A35" s="168"/>
+      <c r="B35" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" s="84">
         <v>0.5</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="172"/>
+      <c r="F35" s="171"/>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="169"/>
-      <c r="B36" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="92" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="172"/>
+      <c r="F36" s="171"/>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="169"/>
-      <c r="B37" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="85">
+      <c r="A37" s="168"/>
+      <c r="B37" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="84">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="172"/>
+      <c r="F37" s="171"/>
     </row>
     <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="169"/>
-      <c r="B38" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D38" s="85" t="b">
+      <c r="A38" s="168"/>
+      <c r="B38" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="84" t="b">
         <v>1</v>
       </c>
-      <c r="E38" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="172"/>
+      <c r="E38" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="169"/>
-      <c r="B39" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="97">
+      <c r="A39" s="168"/>
+      <c r="B39" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="96">
         <v>0.6</v>
       </c>
-      <c r="E39" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="172"/>
+      <c r="E39" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="170"/>
-      <c r="B40" s="94" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="F40" s="173"/>
+      <c r="A40" s="169"/>
+      <c r="B40" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="F40" s="172"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6333,9 +6436,9 @@
     <mergeCell ref="F24:F30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId1" location="csa-msp-generation"/>
     <hyperlink ref="F24" r:id="rId2"/>
-    <hyperlink ref="F31" r:id="rId3"/>
+    <hyperlink ref="F31" r:id="rId3" location="csa-aggregation-on-the-aligned-table"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -6346,23 +6449,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="76" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="78" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="76" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="78" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6372,435 +6475,435 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="F1" s="106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="139"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="137" t="s">
+      <c r="E2" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="138"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" s="145"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
-      <c r="B4" s="90" t="s">
+      <c r="E3" s="137" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="175"/>
+      <c r="B4" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="89">
         <f>CSA!D5</f>
         <v>1</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="70" t="str">
+      <c r="C5" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="69" t="str">
         <f>CSA!D6</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="80" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="111"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="177"/>
+      <c r="B6" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="45" t="str">
+      <c r="C6" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="112"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="45" t="str">
+        <v>410</v>
+      </c>
+      <c r="F6" s="111"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="F7" s="113"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="43" t="s">
+      <c r="E7" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="45" t="str">
+      <c r="C8" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
         <v>/peaklists</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="113"/>
+      <c r="E8" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="45" t="str">
+      <c r="C9" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="114"/>
+      <c r="E9" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="114"/>
+      <c r="E10" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="178"/>
+      <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="51" t="str">
+      <c r="C12" s="98" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E12" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="115"/>
+      <c r="E12" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="190" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="131" t="s">
+      <c r="A13" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="133" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="134" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>425</v>
+      <c r="D13" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="A14" s="191"/>
+      <c r="B14" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>0.01</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="192" t="s">
-        <v>293</v>
+      <c r="F14" s="193" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="191"/>
+      <c r="B15" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" s="194"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="191"/>
+      <c r="B16" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="193"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="190"/>
-      <c r="B16" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="54">
+      <c r="C16" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="53">
         <v>0.01</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="193"/>
+      <c r="F16" s="194"/>
     </row>
     <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="53">
+        <v>10</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="194"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="191"/>
+      <c r="B18" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="53">
+        <v>10</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="194"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="192"/>
+      <c r="B19" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="54">
-        <v>10</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="193"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
-      <c r="B18" s="54" t="s">
+      <c r="C19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="195"/>
+    </row>
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="54">
-        <v>10</v>
-      </c>
-      <c r="E18" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="193"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="C20" s="127" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="186" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="184"/>
+      <c r="B21" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="194"/>
-    </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
-      <c r="B21" s="130" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="188"/>
+      <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
-      <c r="B22" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="130">
+      <c r="A22" s="184"/>
+      <c r="B22" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="129">
         <f>D14</f>
         <v>0.01</v>
       </c>
-      <c r="E22" s="129" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="188"/>
+      <c r="E22" s="128" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="189"/>
     </row>
     <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="123">
+      <c r="A23" s="184"/>
+      <c r="B23" s="129" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="122">
         <v>0.05</v>
       </c>
-      <c r="E23" s="124" t="s">
-        <v>397</v>
-      </c>
-      <c r="F23" s="188"/>
+      <c r="E23" s="123" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="189"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="130" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="130">
+      <c r="A24" s="184"/>
+      <c r="B24" s="129" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="129">
         <v>10</v>
       </c>
-      <c r="E24" s="129" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="188"/>
+      <c r="E24" s="128" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="189"/>
     </row>
     <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="123" t="b">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="188"/>
+      <c r="E25" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="189"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="125" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="126" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="125">
+      <c r="A26" s="185"/>
+      <c r="B26" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="124">
         <v>0.9</v>
       </c>
-      <c r="E26" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="189"/>
+      <c r="E26" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="190"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6827,21 +6930,21 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13:E13"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="78" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="78" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6851,243 +6954,243 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="F1" s="106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="139"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="137" t="s">
+      <c r="E2" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="138"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" s="145"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
-      <c r="B4" s="90" t="s">
+      <c r="E3" s="137" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="175"/>
+      <c r="B4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="89">
         <f>DDA!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="70" t="str">
+      <c r="C5" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="69" t="str">
         <f>CSA!D6</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="80" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="111"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="177"/>
+      <c r="B6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="45" t="str">
+      <c r="C6" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="112"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="111"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="45" t="str">
+      <c r="C7" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="113"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="43" t="s">
+      <c r="E7" s="101" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="45" t="str">
+      <c r="C8" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
         <v>/peaklists</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="113"/>
+      <c r="E8" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="45" t="str">
+      <c r="C9" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="161"/>
+      <c r="E9" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="153"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="161"/>
+      <c r="E10" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="161"/>
+      <c r="F11" s="153"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="51" t="str">
+      <c r="A12" s="178"/>
+      <c r="B12" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E12" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="162"/>
+      <c r="E12" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="154"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="133" t="s">
+      <c r="A13" s="179" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="133" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="163" t="s">
-        <v>425</v>
+      <c r="D13" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="155" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="39" t="s">
-        <v>258</v>
+      <c r="A14" s="179"/>
+      <c r="B14" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="141">
+        <v>421</v>
+      </c>
+      <c r="D14" s="140">
         <v>1000</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="195" t="s">
-        <v>424</v>
+      <c r="F14" s="196" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7098,220 +7201,220 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="39" t="s">
-        <v>310</v>
+      <c r="A16" s="179"/>
+      <c r="B16" s="38" t="s">
+        <v>305</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="179"/>
+      <c r="B17" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>0.01</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="67">
+        <v>290</v>
+      </c>
+      <c r="D18" s="66">
         <v>50</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="39" t="s">
-        <v>150</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="39">
+        <v>158</v>
+      </c>
+      <c r="D19" s="38">
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="182"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="38">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="181"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="180"/>
+      <c r="B21" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="39">
-        <v>90</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="182"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
-      <c r="B21" s="69" t="s">
-        <v>157</v>
-      </c>
       <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="182"/>
+    </row>
+    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="127" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="186" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="184"/>
+      <c r="B23" s="129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="69">
-        <v>0.95</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="183"/>
-    </row>
-    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>403</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="128" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="189"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="130">
+      <c r="A24" s="184"/>
+      <c r="B24" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="129">
         <f>D17</f>
         <v>0.01</v>
       </c>
-      <c r="E24" s="129" t="s">
-        <v>401</v>
-      </c>
-      <c r="F24" s="188"/>
+      <c r="E24" s="128" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24" s="189"/>
     </row>
     <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="123">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="122">
         <v>0.05</v>
       </c>
-      <c r="E25" s="124" t="s">
-        <v>402</v>
-      </c>
-      <c r="F25" s="188"/>
+      <c r="E25" s="123" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="189"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="130" t="s">
-        <v>380</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="A26" s="184"/>
+      <c r="B26" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="129">
         <v>10</v>
       </c>
-      <c r="E26" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="188"/>
+      <c r="E26" s="128" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="189"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="130" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27" s="123" t="b">
+      <c r="A27" s="184"/>
+      <c r="B27" s="129" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="188"/>
+      <c r="E27" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="189"/>
     </row>
     <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="125" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="125">
+      <c r="A28" s="185"/>
+      <c r="B28" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="124">
         <v>0.9</v>
       </c>
-      <c r="E28" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="189"/>
+      <c r="E28" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="190"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7368,129 +7471,129 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="151"/>
+    </row>
+    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="166"/>
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="150" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="152"/>
-    </row>
-    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167"/>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="153" t="s">
-        <v>196</v>
+      <c r="C3" s="152" t="s">
+        <v>194</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="153" t="s">
-        <v>407</v>
+      <c r="E3" s="152" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="167"/>
+      <c r="B5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="197" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="153" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="24">
         <f>DIA!D4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197"/>
-      <c r="B7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="A7" s="198"/>
+      <c r="B7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="37">
         <f>SpectraSimilarity!D8</f>
         <v>1</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>139</v>
+      <c r="E7" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <f>SpectraSimilarity!D12</f>
         <v>0.01</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="146" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="147" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="148" t="b">
+      <c r="A9" s="199"/>
+      <c r="B9" s="145" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="147" t="b">
         <f>SpectraSimilarity!D13</f>
         <v>1</v>
       </c>
-      <c r="E9" s="147" t="s">
-        <v>47</v>
+      <c r="E9" s="146" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7613,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,336 +7639,337 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>294</v>
+      <c r="F1" s="110" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="A2" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="36">
         <f>FSDB!D6</f>
         <v>1</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="202" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="163" t="s">
-        <v>425</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="179"/>
+      <c r="B5" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="118"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="179"/>
+      <c r="B6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="118"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="179"/>
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="119"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" s="119"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="119"/>
+      <c r="E7" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="195" t="s">
-        <v>314</v>
+      <c r="E8" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="196" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="18">
         <v>20</v>
       </c>
-      <c r="E9" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="182"/>
+      <c r="E9" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="181"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D10" s="18">
         <v>50</v>
       </c>
-      <c r="E10" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="182"/>
+      <c r="E10" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="181"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="182"/>
+      <c r="E11" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="181"/>
     </row>
     <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D12" s="18">
         <v>0.01</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="181"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="182"/>
+      <c r="E13" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="181"/>
     </row>
     <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="182"/>
+      <c r="E15" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D16" s="18">
         <v>0.75</v>
       </c>
-      <c r="E16" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="182"/>
+      <c r="E16" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="182"/>
+      <c r="E17" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D18" s="18">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="200"/>
+      <c r="F18" s="201"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="118" t="s">
-        <v>241</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="117" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="67">
+        <v>298</v>
+      </c>
+      <c r="D19" s="66">
         <v>0</v>
       </c>
-      <c r="E19" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="120"/>
+      <c r="E19" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
-      <c r="B20" s="116" t="s">
-        <v>323</v>
+      <c r="A20" s="180"/>
+      <c r="B20" s="115" t="s">
+        <v>317</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="121"/>
+      <c r="E20" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="120"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="F8:F18"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2" location="standardizing-precursor-types"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7878,7 +7982,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7887,7 +7991,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7908,140 +8012,140 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="30" t="str">
+      <c r="A2" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="29" t="str">
         <f>DIA!D9</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="30">
+      <c r="A3" s="204"/>
+      <c r="B3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="29">
         <f>SpectraSimilarity!D2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="60">
+        <v>250</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="204"/>
+      <c r="B5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="61">
-        <v>250</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="C5" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="60">
+        <v>20</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
-      <c r="B5" s="59" t="s">
+    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="204"/>
+      <c r="B6" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="61">
-        <v>20</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202"/>
-      <c r="B6" s="59" t="s">
+      <c r="C6" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="204"/>
+      <c r="B7" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C7" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="204"/>
+      <c r="B8" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="204"/>
+      <c r="B9" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="64">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202"/>
-      <c r="B8" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
-      <c r="B9" s="62" t="s">
+      <c r="E9" s="62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="205"/>
+      <c r="B10" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
-      <c r="B10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>283</v>
+      <c r="D10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8069,26 +8173,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>138</v>
+      <c r="B2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8096,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8104,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8115,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8123,7 +8227,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8131,10 +8235,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8142,7 +8246,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8150,7 +8254,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8158,7 +8262,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8166,7 +8270,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8174,7 +8278,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,10 +8286,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,10 +8297,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8204,10 +8308,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,10 +8319,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,10 +8330,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,10 +8341,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8352,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8363,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8374,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8385,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8396,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8407,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,7 +8418,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,7 +8426,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,10 +8434,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,10 +8445,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,10 +8456,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,10 +8467,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,7 +8478,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8382,7 +8486,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8390,7 +8494,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8398,10 +8502,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8409,10 +8513,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>253</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8420,10 +8524,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>290</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8431,10 +8535,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>281</v>
+        <v>87</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8442,10 +8546,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8453,10 +8557,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8464,7 +8568,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8472,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,7 +8584,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8488,7 +8592,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8496,7 +8600,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8504,7 +8608,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,7 +8616,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8520,11 +8624,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
